--- a/src/ScenarioData_PriceDevelopmentPowerFossilCO2.xlsx
+++ b/src/ScenarioData_PriceDevelopmentPowerFossilCO2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\ESOM Heat Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (KonditorGas)\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="23610" windowHeight="8925"/>
+    <workbookView xWindow="120" yWindow="360" windowWidth="23610" windowHeight="8925" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KSS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="145">
   <si>
     <t>€/MWh</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>konstant 19% für private Haushalte</t>
+  </si>
+  <si>
+    <t>Schätzung UBA 2019, sonst Annahme</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -854,13 +857,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8777,13 +8783,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
@@ -10262,8 +10268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10533,42 +10539,42 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B17" s="26">
         <v>577</v>
       </c>
       <c r="C17" s="26">
-        <v>411</v>
-      </c>
-      <c r="D17" s="26">
-        <v>233</v>
-      </c>
-      <c r="E17" s="26">
-        <v>127</v>
-      </c>
-      <c r="F17" s="26">
-        <v>17</v>
+        <v>401</v>
+      </c>
+      <c r="D17" s="59">
+        <v>200</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B18" s="26">
         <v>577</v>
       </c>
       <c r="C18" s="26">
-        <v>411</v>
-      </c>
-      <c r="D18" s="26">
-        <v>233</v>
-      </c>
-      <c r="E18" s="26">
-        <v>127</v>
-      </c>
-      <c r="F18" s="26">
-        <v>17</v>
+        <v>401</v>
+      </c>
+      <c r="D18" s="59">
+        <v>200</v>
+      </c>
+      <c r="E18" s="59">
+        <v>0</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12051,7 +12057,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -12071,7 +12077,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="49" t="s">
         <v>47</v>
       </c>
